--- a/url.xlsx
+++ b/url.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BDT/Documents/py/capture-web-scraping-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BDT/Documents/py/auto_cap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{77C2F24E-7927-0B4F-8B4F-A34592303221}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5922ADEF-B2EE-8445-853D-7644ECF49352}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>タイトル1</t>
     <phoneticPr fontId="1"/>
@@ -36,6 +36,89 @@
   <si>
     <t>test1</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://en.smallable.com/</t>
+  </si>
+  <si>
+    <t>https://www.presentandcorrect.com/</t>
+  </si>
+  <si>
+    <t>http://www.asos.com/women/</t>
+  </si>
+  <si>
+    <t>https://www.poketo.com/collections/stationery-alpha-desc</t>
+  </si>
+  <si>
+    <t>https://kawaiipenshop.com/</t>
+  </si>
+  <si>
+    <t>https://www.busybeestationery.com/</t>
+  </si>
+  <si>
+    <t>https://shop.designideas.net/</t>
+  </si>
+  <si>
+    <t>https://quilllondon.com/</t>
+  </si>
+  <si>
+    <t>https://www.thefoxandstar.co.uk/</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>タイトル3</t>
+  </si>
+  <si>
+    <t>タイトル4</t>
+  </si>
+  <si>
+    <t>タイトル5</t>
+  </si>
+  <si>
+    <t>タイトル6</t>
+  </si>
+  <si>
+    <t>タイトル7</t>
+  </si>
+  <si>
+    <t>タイトル8</t>
+  </si>
+  <si>
+    <t>タイトル9</t>
+  </si>
+  <si>
+    <t>タイトル10</t>
   </si>
 </sst>
 </file>
@@ -415,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A2:C7"/>
+      <selection activeCell="C13" sqref="A11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -431,46 +514,187 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4" s="1"/>
-    </row>
     <row r="5" spans="1:3">
-      <c r="C5" s="1"/>
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="C6" s="1"/>
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="C7" s="1"/>
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="C8" s="1"/>
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="C9" s="1"/>
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="C10" s="1"/>
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{23F0E4F2-DAA4-2743-909D-A0F7CD51DD3B}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{AF04AC11-A986-FE45-95D8-37F7540A0FE8}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{B4825381-EBAA-7E47-8B5C-B8C3F0EE8B1B}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{39E52062-3FE7-8D48-A383-4DC9A910230E}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{F1AC31BD-1148-D94A-87C2-3BB73C57FBEE}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{0DA79FDF-1934-164F-B099-F5393428F0DF}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{6DA148DC-0C1C-0B48-9EC4-351DE11FCE40}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{3D038E49-BF50-3A49-8ADC-50B62F17A4D7}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{66997834-E49B-0448-8554-372A58E295F9}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{213D2E0B-2987-2645-86D3-5019F20C5E88}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{0F04C6B4-EA20-5E4D-B7D6-DE98900AE4E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/url.xlsx
+++ b/url.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BDT/Documents/py/auto_cap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5922ADEF-B2EE-8445-853D-7644ECF49352}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BD26DFC2-61C9-1649-86B6-B764FD256167}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>タイトル1</t>
     <phoneticPr fontId="1"/>
@@ -55,70 +55,16 @@
     <t>http://www.asos.com/women/</t>
   </si>
   <si>
-    <t>https://www.poketo.com/collections/stationery-alpha-desc</t>
-  </si>
-  <si>
-    <t>https://kawaiipenshop.com/</t>
-  </si>
-  <si>
-    <t>https://www.busybeestationery.com/</t>
-  </si>
-  <si>
-    <t>https://shop.designideas.net/</t>
-  </si>
-  <si>
-    <t>https://quilllondon.com/</t>
-  </si>
-  <si>
-    <t>https://www.thefoxandstar.co.uk/</t>
-  </si>
-  <si>
     <t>test3</t>
   </si>
   <si>
     <t>test4</t>
   </si>
   <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>test9</t>
-  </si>
-  <si>
-    <t>test10</t>
-  </si>
-  <si>
     <t>タイトル3</t>
   </si>
   <si>
     <t>タイトル4</t>
-  </si>
-  <si>
-    <t>タイトル5</t>
-  </si>
-  <si>
-    <t>タイトル6</t>
-  </si>
-  <si>
-    <t>タイトル7</t>
-  </si>
-  <si>
-    <t>タイトル8</t>
-  </si>
-  <si>
-    <t>タイトル9</t>
-  </si>
-  <si>
-    <t>タイトル10</t>
   </si>
 </sst>
 </file>
@@ -501,7 +447,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="A11:C13"/>
+      <selection activeCell="A10" sqref="A5:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -530,10 +476,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -541,80 +487,32 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="1"/>
@@ -689,12 +587,6 @@
     <hyperlink ref="C2" r:id="rId2" xr:uid="{B4825381-EBAA-7E47-8B5C-B8C3F0EE8B1B}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{39E52062-3FE7-8D48-A383-4DC9A910230E}"/>
     <hyperlink ref="C4" r:id="rId4" xr:uid="{F1AC31BD-1148-D94A-87C2-3BB73C57FBEE}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{0DA79FDF-1934-164F-B099-F5393428F0DF}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{6DA148DC-0C1C-0B48-9EC4-351DE11FCE40}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{3D038E49-BF50-3A49-8ADC-50B62F17A4D7}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{66997834-E49B-0448-8554-372A58E295F9}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{213D2E0B-2987-2645-86D3-5019F20C5E88}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{0F04C6B4-EA20-5E4D-B7D6-DE98900AE4E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
